--- a/biology/Botanique/Acropogon_jaffrei/Acropogon_jaffrei.xlsx
+++ b/biology/Botanique/Acropogon_jaffrei/Acropogon_jaffrei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acropogon jaffrei est une espèce de plantes de la famille des Malvacées endémique de la Nouvelle-Calédonie[1]. Elle fait partie des espèces en danger sur la liste rouge de l'UICN[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acropogon jaffrei est une espèce de plantes de la famille des Malvacées endémique de la Nouvelle-Calédonie. Elle fait partie des espèces en danger sur la liste rouge de l'UICN.
 </t>
         </is>
       </c>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme un arbre monocaule ou peu ramifié. Il peut atteindre 10 mètres de haut et 20 centimètres de diamètre[1].
-Feuilles
-Les feuilles sont trilobées, évoquant une empreinte de dinosaure[3].
-Fleurs
-Les fleurs sont rouges veinées de jaune[3].
-Fruits
-Les fruits contiennent des graines noires[1].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un arbre monocaule ou peu ramifié. Il peut atteindre 10 mètres de haut et 20 centimètres de diamètre.
 </t>
         </is>
       </c>
@@ -546,12 +557,125 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont trilobées, évoquant une empreinte de dinosaure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acropogon_jaffrei</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acropogon_jaffrei</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont rouges veinées de jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acropogon_jaffrei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acropogon_jaffrei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits contiennent des graines noires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acropogon_jaffrei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acropogon_jaffrei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre sur la côte ouest de la Grande Terre, dans le secteur allant de Poya à Koné[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre sur la côte ouest de la Grande Terre, dans le secteur allant de Poya à Koné.
 </t>
         </is>
       </c>
